--- a/Nevada/Regulatory/NV_RegulatoryInfo Schema Mapping to WaDE_QA.xlsx
+++ b/Nevada/Regulatory/NV_RegulatoryInfo Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nevada\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0301E1A4-BDD8-4DB2-8FE7-60E183D2998B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C8460D-48B3-4CE9-A367-A39BEC79C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="180">
   <si>
     <t>Name</t>
   </si>
@@ -522,9 +522,6 @@
     <t>BasinName</t>
   </si>
   <si>
-    <t>BasinID</t>
-  </si>
-  <si>
     <t>Groundwater Basin Designations</t>
   </si>
   <si>
@@ -599,6 +596,12 @@
       </rPr>
       <t xml:space="preserve"> field here: https://www.nyecountywaterdistrict.net/161/Designated-Basins-in-Nye-County</t>
     </r>
+  </si>
+  <si>
+    <t>Will use OID_ for native id, as there are duplicate name and BasinID values that don't aling with the Designated v non-Designated portins of each baisn.</t>
+  </si>
+  <si>
+    <t>OID_</t>
   </si>
 </sst>
 </file>
@@ -1664,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1730,13 +1733,13 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="127"/>
       <c r="B6" s="125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="127"/>
       <c r="B7" s="125" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1744,7 +1747,7 @@
         <v>56</v>
       </c>
       <c r="B8" s="121" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1755,7 +1758,9 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="127"/>
-      <c r="B10" s="72"/>
+      <c r="B10" s="72" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="127"/>
@@ -2216,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>11</v>
@@ -2280,7 +2285,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="124" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>11</v>
@@ -2437,7 +2442,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2633,7 +2638,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="105" t="s">
         <v>159</v>
@@ -2663,10 +2668,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" s="105" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="H8" s="81" t="s">
         <v>11</v>
@@ -2720,7 +2725,7 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" s="115" t="s">
         <v>11</v>
@@ -2864,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2960,7 +2965,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4" s="118" t="s">
         <v>11</v>
@@ -2991,7 +2996,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F5" s="115" t="s">
         <v>11</v>
@@ -3022,7 +3027,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="115" t="s">
         <v>11</v>
@@ -3056,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="105" t="s">
         <v>159</v>
@@ -3087,10 +3092,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" s="105" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>11</v>
@@ -3115,7 +3120,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="104" t="s">
         <v>11</v>
@@ -3146,7 +3151,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" s="104" t="s">
         <v>11</v>
@@ -3177,7 +3182,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F11" s="115" t="s">
         <v>11</v>
@@ -3274,7 +3279,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14" s="115" t="s">
         <v>11</v>
@@ -3304,7 +3309,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>11</v>
@@ -3945,7 +3950,7 @@
   <sheetData>
     <row r="1" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
         <v>138</v>
@@ -3956,7 +3961,7 @@
     </row>
     <row r="2" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>140</v>
@@ -12157,7 +12162,7 @@
     </row>
     <row r="3" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
         <v>142</v>
@@ -20358,7 +20363,7 @@
     </row>
     <row r="4" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
         <v>144</v>
@@ -28559,10 +28564,10 @@
     </row>
     <row r="5" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
         <v>172</v>
-      </c>
-      <c r="B5" t="s">
-        <v>173</v>
       </c>
       <c r="C5" t="s">
         <v>146</v>
